--- a/result/平均人数表.xlsx
+++ b/result/平均人数表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>2015高校</t>
   </si>
@@ -32,6 +32,45 @@
   </si>
   <si>
     <t>2017平均人数</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -389,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,11 +470,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -454,11 +493,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>6</v>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -477,11 +516,11 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>3</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -524,10 +563,10 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -546,11 +585,11 @@
       <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7">
-        <v>5</v>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>310</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -569,8 +608,11 @@
       <c r="E8">
         <v>89</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -590,7 +632,10 @@
         <v>118</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -609,8 +654,11 @@
       <c r="E10">
         <v>335</v>
       </c>
-      <c r="F10">
-        <v>10</v>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -630,7 +678,10 @@
         <v>567</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -649,8 +700,11 @@
       <c r="E12">
         <v>962</v>
       </c>
-      <c r="F12">
-        <v>11</v>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -670,7 +724,10 @@
         <v>2572</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -689,6 +746,12 @@
       <c r="E14">
         <v>3447</v>
       </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>310</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -705,6 +768,67 @@
       </c>
       <c r="E15">
         <v>4158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>3674</v>
       </c>
     </row>
   </sheetData>
